--- a/flows/DJP_fund_flow_data.xlsx
+++ b/flows/DJP_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4461"/>
+  <dimension ref="A1:B4479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45045,6 +45045,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4462">
+      <c r="A4462" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B4462" t="n">
+        <v>-2.075353</v>
+      </c>
+    </row>
+    <row r="4463">
+      <c r="A4463" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B4463" t="n">
+        <v>-8.973330000000001</v>
+      </c>
+    </row>
+    <row r="4464">
+      <c r="A4464" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B4464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4465">
+      <c r="A4465" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B4465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4466">
+      <c r="A4466" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B4466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4467">
+      <c r="A4467" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B4467" t="n">
+        <v>-13.48902</v>
+      </c>
+    </row>
+    <row r="4468">
+      <c r="A4468" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4469">
+      <c r="A4469" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4470">
+      <c r="A4470" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4470" t="n">
+        <v>-1.509485</v>
+      </c>
+    </row>
+    <row r="4471">
+      <c r="A4471" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4471" t="n">
+        <v>-3.03615</v>
+      </c>
+    </row>
+    <row r="4472">
+      <c r="A4472" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4473">
+      <c r="A4473" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4473" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4474">
+      <c r="A4474" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4475">
+      <c r="A4475" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4476">
+      <c r="A4476" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4476" t="n">
+        <v>-3.981263</v>
+      </c>
+    </row>
+    <row r="4477">
+      <c r="A4477" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4478">
+      <c r="A4478" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4479">
+      <c r="A4479" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4479" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
